--- a/NSGA-II_results/Pareto_results.xlsx
+++ b/NSGA-II_results/Pareto_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3422C3D3-C066-4B15-84B3-4307D2430E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A7EC55-9315-43B3-AC7E-AB6800D47737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{BC49C3F9-9838-4A2A-84A7-0972FCA69DC5}"/>
+    <workbookView xWindow="-28920" yWindow="6150" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{BC49C3F9-9838-4A2A-84A7-0972FCA69DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="△Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="△Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -618,7 +618,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet10!$A$1:$A$42</c:f>
+              <c:f>△Sheet10!$A$1:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -753,7 +753,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet10!$B$1:$B$42</c:f>
+              <c:f>△Sheet10!$B$1:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -11128,9 +11128,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -11674,7 +11674,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -11846,12 +11846,12 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B88"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -12011,7 +12011,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -12355,7 +12355,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -12371,7 +12371,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -12570,9 +12570,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -13148,7 +13148,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -13291,12 +13291,12 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="23.5" customWidth="1"/>
+    <col min="1" max="2" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -13544,7 +13544,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -14015,9 +14015,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -14273,7 +14273,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -14345,7 +14345,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -14736,9 +14736,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -14786,7 +14786,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -15114,7 +15114,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -15457,9 +15457,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -15883,7 +15883,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -16019,7 +16019,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -16043,7 +16043,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -16059,7 +16059,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -16178,9 +16178,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -16412,7 +16412,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -16899,9 +16899,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -17101,7 +17101,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -17173,7 +17173,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -17397,7 +17397,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -17437,7 +17437,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -17493,7 +17493,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -17541,7 +17541,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>
@@ -17620,9 +17620,9 @@
       <selection sqref="A1:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>297385.21072341269</v>
       </c>
@@ -17630,7 +17630,7 @@
         <v>147799.3819802088</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>297370.10450119048</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>147732.7704220585</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>296775.38883134921</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>147679.99544132804</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>297200.43502420635</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>147716.24781523377</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>296366.78811785718</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>147486.07587132635</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>296635.70358452381</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>147628.75045858003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>295782.74098730157</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>147463.7307148164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>295399.77188730158</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>147433.63143237689</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>296925.17469801591</v>
       </c>
@@ -17694,7 +17694,7 @@
         <v>147711.4302240962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>296636.54183134926</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>147675.60618973259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>296798.3423980159</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>147694.54125992788</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>296466.98065357143</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>147529.38031637232</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>296594.8791424603</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>147624.71621720731</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>295551.15039801586</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>147458.20336031143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>298166.35060515872</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>147878.76260193303</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>298293.37567182543</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>147889.59500083281</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>297662.48199404764</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>147846.81877684512</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>298073.07527182542</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>147874.37335033758</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>299110.58504325396</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>148035.94431006425</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>299054.00583611114</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>148035.52537929561</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>299044.70903611113</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>148031.13612770016</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>299305.61675793654</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>148075.56297190918</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>299845.8340579365</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>148122.72419636723</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>299694.9197579365</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>148085.00430535208</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>298894.35818849207</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>147964.81039210758</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>298719.33625515876</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>147950.57517063143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>298611.28438015876</v>
       </c>
@@ -17838,7 +17838,7 @@
         <v>147903.8311741483</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>298442.54518015869</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>147898.80471372377</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>298623.39720515872</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>147931.59751096216</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>304783.72485</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>150213.31654265261</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>304791.12221349205</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>150266.70045822929</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>300520.71062222222</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>148434.86755569247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>300482.18839365081</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>148408.9435769975</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>300319.3671936508</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>148375.4966983675</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>300554.90342222224</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>148450.200418586</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>301361.14055476192</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>148667.53894055192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>301080.87805476191</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>148551.80086596083</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>300489.56237619044</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>148430.60140841774</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>300725.09860476188</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>148505.30512863625</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>300770.94450476189</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>148524.95265019292</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>301619.67328611109</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>148743.63412094314</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>301638.2045638889</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>148801.29596927023</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>301729.57636388892</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>148805.4631260898</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>300981.94604166667</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>148534.8536498319</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>300913.11569166667</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>148534.59222521531</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>301121.49095833336</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>148557.17456869895</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>301261.91840833332</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>148612.27927874919</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>297515.91094603174</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>147835.74064000012</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>305221.57039285713</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>150522.2032781911</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>305236.29670674604</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>150564.21809237145</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>304848.30450674606</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>150436.98761797746</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>305194.96391785715</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>150448.1214701705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>304539.99435674603</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>149744.18670162983</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>302073.0738547619</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>148939.21954740843</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>302430.8753547619</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>148979.55227001681</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>302260.84084047622</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>148945.07205517372</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304231.68531031744</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>149654.99741600532</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>304168.9580531746</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>149613.64891784283</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>304028.00252619048</v>
       </c>
@@ -18094,7 +18094,7 @@
         <v>149556.12790204107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>304116.35155476193</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>149578.67021205637</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>304379.2087103175</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>149710.28996626308</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>304349.97248174599</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>149680.26205993435</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>304316.19356031745</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>149676.44874807325</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>301852.56271230162</v>
       </c>
@@ -18134,7 +18134,7 @@
         <v>148908.28517577032</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>301855.96310119051</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>148938.7009925163</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>303513.35410634923</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>149158.7783454032</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>303544.22351190477</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>149195.53583371147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>303137.93081190478</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>149106.56900421271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>303050.70090634923</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>149043.60420000402</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>303916.64494841272</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>149355.8416022262</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>303665.26429285714</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>149227.89853522633</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>303958.33053571428</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>149517.51693758325</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>305720.55973531748</v>
       </c>
@@ -18206,7 +18206,7 @@
         <v>150682.8936749821</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>300225.22937658732</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>148343.68397474734</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>300161.79520079365</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>148210.05077847827</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>299911.63840079366</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>148177.68807696342</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>300219.5180452381</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>148267.64271457351</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>300184.43220079364</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>148266.40178707021</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>293075.62553769839</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>147424.2014839834</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>292996.67489325395</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>147373.80872836465</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>292871.77114880952</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>147325.45758955966</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>291948.58655674604</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>147302.88920782329</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>292365.53105674603</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>147317.63284551873</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>292024.02408531745</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>147307.81245401918</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>291409.85935357143</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>147271.33189888726</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>291020.80827380955</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>147262.5432299565</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>291661.6065202381</v>
       </c>
@@ -18318,7 +18318,7 @@
         <v>147275.49905570684</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>291738.14758690476</v>
       </c>

--- a/NSGA-II_results/Pareto_results.xlsx
+++ b/NSGA-II_results/Pareto_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39084513-D293-4852-947D-596426CB84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25BEA-56D1-4D0A-B678-398968DCC135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{A9BC2579-B45C-470C-BF86-7030DB60672E}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{A9BC2579-B45C-470C-BF86-7030DB60672E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7098,628 +7096,804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB70D545-88E7-43D9-967E-4DBDC4E4A82D}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B77"/>
+      <selection sqref="A1:B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>31610.492953539684</v>
+        <v>29973.506374515877</v>
       </c>
       <c r="B1">
-        <v>42065.89763951661</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42066.488203732886</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>32013.540577539676</v>
+        <v>30039.68339451588</v>
       </c>
       <c r="B2">
-        <v>42080.06118581981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42073.442564733086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>31638.412973539682</v>
+        <v>30149.24242429365</v>
       </c>
       <c r="B3">
-        <v>42071.560602184552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42074.246957337316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>31214.453799515875</v>
+        <v>31216.345256047614</v>
       </c>
       <c r="B4">
-        <v>42054.63539188799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42090.667774068999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>31240.779989738094</v>
+        <v>30910.581017825392</v>
       </c>
       <c r="B5">
-        <v>42056.9378941057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42080.017139660464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>31304.792325515875</v>
+        <v>31219.871825492068</v>
       </c>
       <c r="B6">
-        <v>42061.542010743004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42091.78211868833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>31143.593122944447</v>
+        <v>30710.503461920642</v>
       </c>
       <c r="B7">
-        <v>42053.653352738031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42075.870482255741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>31733.083544253961</v>
+        <v>30748.601358492066</v>
       </c>
       <c r="B8">
-        <v>42073.485009458091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42077.813331445162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>30951.987567571436</v>
+        <v>32164.19842153175</v>
       </c>
       <c r="B9">
-        <v>42052.400876236992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42097.850343532788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>31380.299319468253</v>
+        <v>31379.035352579369</v>
       </c>
       <c r="B10">
-        <v>42061.718237412621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42094.51135984806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>31391.437499968255</v>
+        <v>31431.724180825397</v>
       </c>
       <c r="B11">
-        <v>42064.494871094008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42094.968211221989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>32876.000617476195</v>
+        <v>34144.91097292857</v>
       </c>
       <c r="B12">
-        <v>42094.766401357818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42187.635277946581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>32726.007652904766</v>
+        <v>34041.493328928576</v>
       </c>
       <c r="B13">
-        <v>42093.784362207858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42185.171925703762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>32854.844729476186</v>
+        <v>34779.530955555558</v>
       </c>
       <c r="B14">
-        <v>42094.349685675865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42232.723455257707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>33011.553359476195</v>
+        <v>34431.235988206347</v>
       </c>
       <c r="B15">
-        <v>42099.083968573119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42197.372405575145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>35199.256005396826</v>
+        <v>34354.769622706357</v>
       </c>
       <c r="B16">
-        <v>42228.286786657103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42194.338583041885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>35146.001475396828</v>
+        <v>34861.261496349209</v>
       </c>
       <c r="B17">
-        <v>42227.896302009867</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42247.30956174239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>35903.229168420636</v>
+        <v>34602.659004849214</v>
       </c>
       <c r="B18">
-        <v>42304.089418553456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42220.108724537997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>35969.003081753966</v>
+        <v>34656.304301293654</v>
       </c>
       <c r="B19">
-        <v>42316.883725253443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42221.955097232283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>36008.105176785713</v>
+        <v>34905.362120468257</v>
       </c>
       <c r="B20">
-        <v>42317.990258742051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42269.066714273838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>36176.660263087302</v>
+        <v>34960.348584968262</v>
       </c>
       <c r="B21">
-        <v>42340.054389371493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42273.675283827994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>36113.409533087302</v>
+        <v>34963.181922746036</v>
       </c>
       <c r="B22">
-        <v>42329.813297208006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42273.845667650683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>36134.795033087299</v>
+        <v>34815.89505129365</v>
       </c>
       <c r="B23">
-        <v>42338.332293712469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42244.27573920913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>36052.403892214286</v>
+        <v>35727.013863976201</v>
       </c>
       <c r="B24">
-        <v>42320.244489743578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42350.457117179263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>35813.543435896827</v>
+        <v>35779.694031976192</v>
       </c>
       <c r="B25">
-        <v>42283.364292855607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42368.398370278344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>35788.273729230161</v>
+        <v>35713.453883976195</v>
       </c>
       <c r="B26">
-        <v>42276.026700255599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42343.625577541548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>35546.678632753974</v>
+        <v>34900.466321111118</v>
       </c>
       <c r="B27">
-        <v>42249.943960368451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42267.591417769741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>35299.13463246826</v>
+        <v>34867.911345682543</v>
       </c>
       <c r="B28">
-        <v>42235.690769196604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42266.543208043695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>35474.728778468256</v>
+        <v>35025.390545682538</v>
       </c>
       <c r="B29">
-        <v>42239.759160173489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42278.541447247204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>35237.134266023815</v>
+        <v>34972.03877807143</v>
       </c>
       <c r="B30">
-        <v>42232.203651578959</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42273.962689881773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>35764.347859682544</v>
+        <v>35022.799470071426</v>
       </c>
       <c r="B31">
-        <v>42268.990500891203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42277.295877818637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>35680.588356325403</v>
+        <v>35048.937522571425</v>
       </c>
       <c r="B32">
-        <v>42262.036886702546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42282.518849672029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>35714.8801838254</v>
+        <v>35121.880112904764</v>
       </c>
       <c r="B33">
-        <v>42266.384590488269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42286.445639863712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>35770.128310920634</v>
+        <v>35158.093408904766</v>
       </c>
       <c r="B34">
-        <v>42273.73647088185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42289.350389309744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>35586.599127253969</v>
+        <v>34995.141404047623</v>
       </c>
       <c r="B35">
-        <v>42260.07775530855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42275.647919365372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>35876.865962238095</v>
+        <v>31178.695849325399</v>
       </c>
       <c r="B36">
-        <v>42288.609431030454</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42086.82436271177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>32569.977403476187</v>
+        <v>31030.378283825397</v>
       </c>
       <c r="B37">
-        <v>42083.673673692057</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42082.174788979311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>32671.679355476197</v>
+        <v>35915.717782857144</v>
       </c>
       <c r="B38">
-        <v>42090.216995361043</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42443.265680967415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>33757.056096761909</v>
+        <v>35956.61763885714</v>
       </c>
       <c r="B39">
-        <v>42124.945315912708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42451.007706040444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>33708.22429776191</v>
+        <v>35679.310995309526</v>
       </c>
       <c r="B40">
-        <v>42124.102064311548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42340.441236779661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>33611.949035761907</v>
+        <v>35465.55725576984</v>
       </c>
       <c r="B41">
-        <v>42121.600628049709</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42318.114585926931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>33485.154075761908</v>
+        <v>35367.628086944445</v>
       </c>
       <c r="B42">
-        <v>42115.209472948387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42300.104789222038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>33668.586176761906</v>
+        <v>35383.026378944443</v>
       </c>
       <c r="B43">
-        <v>42123.403315705982</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42314.854035642522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>34020.206286460321</v>
+        <v>35379.907749103179</v>
       </c>
       <c r="B44">
-        <v>42132.235829589314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42307.106439588308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>34049.932948111113</v>
+        <v>35382.654841547628</v>
       </c>
       <c r="B45">
-        <v>42137.643686838419</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42311.711262830126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>34139.184773253968</v>
+        <v>35211.698308658728</v>
       </c>
       <c r="B46">
-        <v>42139.58653602784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42289.443194284861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>33950.485558460314</v>
+        <v>35265.561064214293</v>
       </c>
       <c r="B47">
-        <v>42129.889589083614</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42295.594185385089</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>34046.88592188889</v>
+        <v>35507.78245576984</v>
       </c>
       <c r="B48">
-        <v>42137.359961105467</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42321.977595776239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>34033.719654777786</v>
+        <v>35519.370395769831</v>
       </c>
       <c r="B49">
-        <v>42137.235868355136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42326.454860043035</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>33835.584058460321</v>
+        <v>35578.741816198417</v>
       </c>
       <c r="B50">
-        <v>42128.661695412113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42336.917093752345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>34104.006291920639</v>
+        <v>35578.679656198416</v>
       </c>
       <c r="B51">
-        <v>42139.178717544557</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42333.792778703733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>33390.762128587303</v>
+        <v>35780.557850976184</v>
       </c>
       <c r="B52">
-        <v>42112.240922183977</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42412.10875050773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>35086.331950246022</v>
+        <v>35845.32383897619</v>
       </c>
       <c r="B53">
-        <v>42204.81593213728</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42417.030005951208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>35094.166965341261</v>
+        <v>36120.131902007939</v>
       </c>
       <c r="B54">
-        <v>42207.503555806921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42473.618355473896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>34989.368391246026</v>
+        <v>36058.455952007942</v>
       </c>
       <c r="B55">
-        <v>42202.831189870987</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42466.445306627757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>35108.424955246024</v>
+        <v>35961.303552857142</v>
       </c>
       <c r="B56">
-        <v>42214.394222158175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42464.572962709346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>35116.259970341263</v>
+        <v>36320.483556976193</v>
       </c>
       <c r="B57">
-        <v>42217.081845827815</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42511.680106842214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>34715.364716833334</v>
+        <v>36412.030582722226</v>
       </c>
       <c r="B58">
-        <v>42172.655169087884</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42533.252299425731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>34790.576827388897</v>
+        <v>36383.863675865083</v>
       </c>
       <c r="B59">
-        <v>42179.094892970592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42522.142493102678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>35047.700592912697</v>
+        <v>36301.07757136508</v>
       </c>
       <c r="B60">
-        <v>42203.106249411809</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42509.810089770333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>34804.975581865081</v>
+        <v>36288.916842119048</v>
       </c>
       <c r="B61">
-        <v>42182.921019412657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42492.123372926173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>34886.14234872222</v>
+        <v>36360.191784690469</v>
       </c>
       <c r="B62">
-        <v>42189.725068826498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42516.449150196924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>34800.368776722229</v>
+        <v>32337.810795515874</v>
       </c>
       <c r="B63">
-        <v>42180.124084435884</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42116.354367292115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>34813.850034722222</v>
+        <v>32435.483103515875</v>
       </c>
       <c r="B64">
-        <v>42188.374697785839</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42117.980337057954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>34810.435042722231</v>
+        <v>32234.04215107143</v>
       </c>
       <c r="B65">
-        <v>42183.465362695075</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42113.454740241934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>34956.428985865088</v>
+        <v>32727.889962277783</v>
       </c>
       <c r="B66">
-        <v>42191.667918015919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42130.999091878009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>34325.879187119048</v>
+        <v>32468.696013071436</v>
       </c>
       <c r="B67">
-        <v>42146.050243382801</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42124.014966168892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>34566.604828071431</v>
+        <v>32442.357134849211</v>
       </c>
       <c r="B68">
-        <v>42146.422904194973</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42123.890873418561</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>34649.566929849207</v>
+        <v>32509.366398277776</v>
       </c>
       <c r="B69">
-        <v>42164.840084903131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42128.642166069389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>34668.761066833336</v>
+        <v>32602.525585293657</v>
       </c>
       <c r="B70">
-        <v>42169.593258138055</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42130.980431638345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>33533.301356428572</v>
+        <v>32222.426881738098</v>
       </c>
       <c r="B71">
-        <v>42116.078287334269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42108.147221533422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>33605.17053785715</v>
+        <v>32345.693836404764</v>
       </c>
       <c r="B72">
-        <v>42120.52847017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42117.656912883554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>34227.038178444447</v>
+        <v>32470.165967801593</v>
       </c>
       <c r="B73">
-        <v>42141.885442087594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42125.385075722166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>33302.09478196031</v>
+        <v>32602.143271134926</v>
       </c>
       <c r="B74">
-        <v>42108.492503104913</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42129.444468514354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>33465.324901682543</v>
+        <v>33626.044245857142</v>
       </c>
       <c r="B75">
-        <v>42113.384365878032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42171.32778958034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>33293.587748682534</v>
+        <v>33498.490363912701</v>
       </c>
       <c r="B76">
-        <v>42106.301520353401</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42161.835556252227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>33271.332268682534</v>
+        <v>33537.201599857144</v>
       </c>
       <c r="B77">
-        <v>42102.709949854645</v>
+        <v>42167.652040749512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>33708.4486774127</v>
+      </c>
+      <c r="B78">
+        <v>42174.564059731827</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>33253.855742111118</v>
+      </c>
+      <c r="B79">
+        <v>42154.42998704654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>33256.689079888893</v>
+      </c>
+      <c r="B80">
+        <v>42154.60037086923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>33217.856517388893</v>
+      </c>
+      <c r="B81">
+        <v>42150.458111297179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>33177.423761388898</v>
+      </c>
+      <c r="B82">
+        <v>42147.841004445872</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>33358.972463888887</v>
+      </c>
+      <c r="B83">
+        <v>42157.836641020716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>33132.619369888889</v>
+      </c>
+      <c r="B84">
+        <v>42147.60375429094</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>33122.394927222223</v>
+      </c>
+      <c r="B85">
+        <v>42142.296235582427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>33020.928652722221</v>
+      </c>
+      <c r="B86">
+        <v>42136.564950509186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>32769.166267722219</v>
+      </c>
+      <c r="B87">
+        <v>42132.531678248342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>32788.024012722228</v>
+      </c>
+      <c r="B88">
+        <v>42136.170556769073</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>32895.078519388888</v>
+      </c>
+      <c r="B89">
+        <v>42136.430948488371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>32809.272355960318</v>
+      </c>
+      <c r="B90">
+        <v>42136.377232561412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>34247.608244706353</v>
+      </c>
+      <c r="B91">
+        <v>42192.790462052275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>34245.384984484124</v>
+      </c>
+      <c r="B92">
+        <v>42190.05751494415</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>34028.982312484135</v>
+      </c>
+      <c r="B93">
+        <v>42184.360571871548</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>33716.032961849211</v>
+      </c>
+      <c r="B94">
+        <v>42182.810161277397</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>34166.366255182547</v>
+      </c>
+      <c r="B95">
+        <v>42188.340279216543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>34670.590857690477</v>
+      </c>
+      <c r="B96">
+        <v>42223.81913556873</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>34526.363871055553</v>
+      </c>
+      <c r="B97">
+        <v>42204.86540115664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>34618.998210134916</v>
+      </c>
+      <c r="B98">
+        <v>42221.135753330404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>34588.993260928575</v>
+      </c>
+      <c r="B99">
+        <v>42207.095007847383</v>
       </c>
     </row>
   </sheetData>
@@ -7736,9 +7910,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -7746,7 +7920,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -7754,7 +7928,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -7762,7 +7936,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -7770,7 +7944,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -7778,7 +7952,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -7786,7 +7960,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -7794,7 +7968,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -7802,7 +7976,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -7810,7 +7984,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -7818,7 +7992,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -7826,7 +8000,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -7834,7 +8008,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -7842,7 +8016,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -7850,7 +8024,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -7858,7 +8032,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -7866,7 +8040,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -7874,7 +8048,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -7882,7 +8056,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -7890,7 +8064,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -7898,7 +8072,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -7906,7 +8080,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -7914,7 +8088,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -7922,7 +8096,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -7930,7 +8104,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -7938,7 +8112,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -7946,7 +8120,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -7954,7 +8128,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -7962,7 +8136,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -7970,7 +8144,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -7978,7 +8152,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -7986,7 +8160,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -7994,7 +8168,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -8002,7 +8176,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -8010,7 +8184,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -8018,7 +8192,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -8026,7 +8200,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -8034,7 +8208,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -8042,7 +8216,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -8050,7 +8224,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -8058,7 +8232,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -8066,7 +8240,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -8074,7 +8248,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -8082,7 +8256,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -8090,7 +8264,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -8098,7 +8272,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -8106,7 +8280,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -8114,7 +8288,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -8122,7 +8296,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -8130,7 +8304,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -8138,7 +8312,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -8146,7 +8320,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -8154,7 +8328,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -8162,7 +8336,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -8170,7 +8344,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -8178,7 +8352,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -8186,7 +8360,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -8194,7 +8368,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -8202,7 +8376,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -8210,7 +8384,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -8218,7 +8392,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -8226,7 +8400,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -8234,7 +8408,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -8242,7 +8416,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -8250,7 +8424,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -8258,7 +8432,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -8266,7 +8440,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -8274,7 +8448,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -8282,7 +8456,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -8290,7 +8464,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -8298,7 +8472,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -8306,7 +8480,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -8314,7 +8488,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -8322,7 +8496,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -8330,7 +8504,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -8338,7 +8512,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -8346,7 +8520,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -8369,9 +8543,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -8379,7 +8553,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -8387,7 +8561,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -8395,7 +8569,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -8403,7 +8577,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -8411,7 +8585,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -8419,7 +8593,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -8427,7 +8601,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -8435,7 +8609,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -8443,7 +8617,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -8451,7 +8625,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -8459,7 +8633,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -8467,7 +8641,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -8475,7 +8649,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -8483,7 +8657,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -8491,7 +8665,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -8499,7 +8673,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -8507,7 +8681,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -8515,7 +8689,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -8523,7 +8697,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -8531,7 +8705,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -8539,7 +8713,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -8547,7 +8721,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -8555,7 +8729,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -8563,7 +8737,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -8571,7 +8745,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -8579,7 +8753,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -8587,7 +8761,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -8595,7 +8769,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -8603,7 +8777,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -8611,7 +8785,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -8619,7 +8793,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -8627,7 +8801,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -8635,7 +8809,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -8643,7 +8817,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -8651,7 +8825,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -8659,7 +8833,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -8667,7 +8841,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -8675,7 +8849,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -8683,7 +8857,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -8691,7 +8865,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -8699,7 +8873,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -8707,7 +8881,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -8715,7 +8889,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -8723,7 +8897,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -8731,7 +8905,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -8739,7 +8913,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -8747,7 +8921,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -8755,7 +8929,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -8763,7 +8937,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -8771,7 +8945,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -8779,7 +8953,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -8787,7 +8961,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -8795,7 +8969,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -8803,7 +8977,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -8811,7 +8985,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -8819,7 +8993,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -8827,7 +9001,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -8835,7 +9009,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -8843,7 +9017,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -8851,7 +9025,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -8859,7 +9033,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -8867,7 +9041,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -8875,7 +9049,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -8883,7 +9057,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -8891,7 +9065,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -8899,7 +9073,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -8907,7 +9081,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -8915,7 +9089,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -8923,7 +9097,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -8931,7 +9105,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -8939,7 +9113,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -8947,7 +9121,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -8955,7 +9129,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -8963,7 +9137,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -8971,7 +9145,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -8979,7 +9153,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -9002,9 +9176,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -9012,7 +9186,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -9020,7 +9194,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -9028,7 +9202,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -9036,7 +9210,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -9044,7 +9218,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -9052,7 +9226,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -9060,7 +9234,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -9068,7 +9242,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -9076,7 +9250,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -9084,7 +9258,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -9092,7 +9266,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -9100,7 +9274,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -9108,7 +9282,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -9116,7 +9290,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -9124,7 +9298,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -9132,7 +9306,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -9140,7 +9314,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -9148,7 +9322,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -9156,7 +9330,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -9164,7 +9338,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -9172,7 +9346,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -9180,7 +9354,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -9188,7 +9362,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -9196,7 +9370,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -9204,7 +9378,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -9212,7 +9386,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -9220,7 +9394,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -9228,7 +9402,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -9236,7 +9410,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -9244,7 +9418,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -9252,7 +9426,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -9260,7 +9434,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -9268,7 +9442,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -9276,7 +9450,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -9284,7 +9458,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -9292,7 +9466,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -9300,7 +9474,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -9308,7 +9482,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -9316,7 +9490,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -9324,7 +9498,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -9332,7 +9506,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -9340,7 +9514,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -9348,7 +9522,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -9356,7 +9530,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -9364,7 +9538,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -9372,7 +9546,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -9380,7 +9554,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -9388,7 +9562,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -9396,7 +9570,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -9404,7 +9578,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -9412,7 +9586,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -9420,7 +9594,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -9428,7 +9602,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -9436,7 +9610,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -9444,7 +9618,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -9452,7 +9626,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -9460,7 +9634,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -9468,7 +9642,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -9476,7 +9650,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -9484,7 +9658,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -9492,7 +9666,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -9500,7 +9674,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -9508,7 +9682,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -9516,7 +9690,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -9524,7 +9698,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -9532,7 +9706,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -9540,7 +9714,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -9548,7 +9722,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -9556,7 +9730,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -9564,7 +9738,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -9572,7 +9746,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -9580,7 +9754,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -9588,7 +9762,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -9596,7 +9770,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -9604,7 +9778,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -9612,7 +9786,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -9635,9 +9809,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -9645,7 +9819,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -9653,7 +9827,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -9661,7 +9835,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -9669,7 +9843,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -9677,7 +9851,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -9685,7 +9859,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -9693,7 +9867,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -9701,7 +9875,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -9709,7 +9883,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -9717,7 +9891,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -9725,7 +9899,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -9733,7 +9907,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -9741,7 +9915,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -9749,7 +9923,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -9757,7 +9931,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -9765,7 +9939,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -9773,7 +9947,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -9781,7 +9955,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -9789,7 +9963,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -9797,7 +9971,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -9805,7 +9979,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -9813,7 +9987,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -9821,7 +9995,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -9829,7 +10003,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -9837,7 +10011,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -9845,7 +10019,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -9853,7 +10027,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -9861,7 +10035,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -9869,7 +10043,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -9877,7 +10051,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -9885,7 +10059,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -9893,7 +10067,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -9901,7 +10075,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -9909,7 +10083,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -9917,7 +10091,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -9925,7 +10099,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -9933,7 +10107,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -9941,7 +10115,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -9949,7 +10123,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -9957,7 +10131,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -9965,7 +10139,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -9973,7 +10147,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -9981,7 +10155,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -9989,7 +10163,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -9997,7 +10171,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -10005,7 +10179,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -10013,7 +10187,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -10021,7 +10195,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -10029,7 +10203,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -10037,7 +10211,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -10045,7 +10219,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -10053,7 +10227,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -10061,7 +10235,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -10069,7 +10243,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -10077,7 +10251,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -10085,7 +10259,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -10093,7 +10267,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -10101,7 +10275,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -10109,7 +10283,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -10117,7 +10291,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -10125,7 +10299,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -10133,7 +10307,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -10141,7 +10315,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -10149,7 +10323,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -10157,7 +10331,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -10165,7 +10339,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -10173,7 +10347,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -10181,7 +10355,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -10189,7 +10363,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -10197,7 +10371,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -10205,7 +10379,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -10213,7 +10387,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -10221,7 +10395,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -10229,7 +10403,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -10237,7 +10411,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -10245,7 +10419,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -10268,9 +10442,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -10278,7 +10452,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -10286,7 +10460,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -10294,7 +10468,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -10302,7 +10476,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -10310,7 +10484,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -10318,7 +10492,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -10326,7 +10500,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -10334,7 +10508,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -10342,7 +10516,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -10350,7 +10524,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -10358,7 +10532,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -10366,7 +10540,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -10374,7 +10548,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -10382,7 +10556,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -10390,7 +10564,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -10398,7 +10572,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -10406,7 +10580,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -10414,7 +10588,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -10422,7 +10596,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -10430,7 +10604,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -10438,7 +10612,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -10446,7 +10620,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -10454,7 +10628,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -10462,7 +10636,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -10470,7 +10644,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -10478,7 +10652,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -10486,7 +10660,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -10494,7 +10668,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -10502,7 +10676,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -10510,7 +10684,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -10518,7 +10692,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -10526,7 +10700,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -10534,7 +10708,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -10542,7 +10716,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -10550,7 +10724,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -10558,7 +10732,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -10566,7 +10740,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -10574,7 +10748,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -10582,7 +10756,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -10590,7 +10764,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -10598,7 +10772,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -10606,7 +10780,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -10614,7 +10788,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -10622,7 +10796,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -10630,7 +10804,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -10638,7 +10812,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -10646,7 +10820,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -10654,7 +10828,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -10662,7 +10836,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -10670,7 +10844,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -10678,7 +10852,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -10686,7 +10860,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -10694,7 +10868,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -10702,7 +10876,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -10710,7 +10884,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -10718,7 +10892,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -10726,7 +10900,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -10734,7 +10908,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -10742,7 +10916,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -10750,7 +10924,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -10758,7 +10932,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -10766,7 +10940,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -10774,7 +10948,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -10782,7 +10956,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -10790,7 +10964,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -10798,7 +10972,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -10806,7 +10980,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -10814,7 +10988,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -10822,7 +10996,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -10830,7 +11004,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -10838,7 +11012,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -10846,7 +11020,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -10854,7 +11028,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -10862,7 +11036,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -10870,7 +11044,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -10878,7 +11052,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -10900,9 +11074,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -10910,7 +11084,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -10918,7 +11092,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -10926,7 +11100,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -10934,7 +11108,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -10942,7 +11116,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -10950,7 +11124,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -10958,7 +11132,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -10966,7 +11140,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -10974,7 +11148,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -10982,7 +11156,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -10990,7 +11164,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -10998,7 +11172,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -11006,7 +11180,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -11014,7 +11188,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -11022,7 +11196,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -11030,7 +11204,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -11038,7 +11212,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -11046,7 +11220,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -11054,7 +11228,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -11062,7 +11236,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -11070,7 +11244,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -11078,7 +11252,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -11086,7 +11260,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -11094,7 +11268,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -11102,7 +11276,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -11110,7 +11284,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -11118,7 +11292,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -11126,7 +11300,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -11134,7 +11308,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -11142,7 +11316,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -11150,7 +11324,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -11158,7 +11332,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -11166,7 +11340,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -11174,7 +11348,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -11182,7 +11356,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -11190,7 +11364,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -11198,7 +11372,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -11206,7 +11380,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -11214,7 +11388,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -11222,7 +11396,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -11230,7 +11404,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -11238,7 +11412,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -11246,7 +11420,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -11254,7 +11428,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -11262,7 +11436,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -11270,7 +11444,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -11278,7 +11452,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -11286,7 +11460,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -11294,7 +11468,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -11302,7 +11476,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -11310,7 +11484,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -11318,7 +11492,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -11326,7 +11500,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -11334,7 +11508,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -11342,7 +11516,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -11350,7 +11524,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -11358,7 +11532,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -11366,7 +11540,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -11374,7 +11548,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -11382,7 +11556,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -11390,7 +11564,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -11398,7 +11572,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -11406,7 +11580,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -11414,7 +11588,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -11422,7 +11596,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -11430,7 +11604,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -11438,7 +11612,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -11446,7 +11620,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -11454,7 +11628,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -11462,7 +11636,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -11470,7 +11644,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -11478,7 +11652,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -11486,7 +11660,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -11494,7 +11668,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -11502,7 +11676,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -11510,7 +11684,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -11533,9 +11707,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -11543,7 +11717,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -11551,7 +11725,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -11559,7 +11733,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -11567,7 +11741,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -11575,7 +11749,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -11583,7 +11757,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -11591,7 +11765,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -11599,7 +11773,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -11607,7 +11781,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -11615,7 +11789,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -11623,7 +11797,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -11631,7 +11805,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -11639,7 +11813,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -11647,7 +11821,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -11655,7 +11829,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -11663,7 +11837,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -11671,7 +11845,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -11679,7 +11853,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -11687,7 +11861,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -11695,7 +11869,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -11703,7 +11877,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -11711,7 +11885,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -11719,7 +11893,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -11727,7 +11901,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -11735,7 +11909,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -11743,7 +11917,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -11751,7 +11925,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -11759,7 +11933,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -11767,7 +11941,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -11775,7 +11949,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -11783,7 +11957,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -11791,7 +11965,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -11799,7 +11973,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -11807,7 +11981,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -11815,7 +11989,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -11823,7 +11997,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -11831,7 +12005,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -11839,7 +12013,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -11847,7 +12021,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -11855,7 +12029,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -11863,7 +12037,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -11871,7 +12045,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -11879,7 +12053,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -11887,7 +12061,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -11895,7 +12069,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -11903,7 +12077,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -11911,7 +12085,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -11919,7 +12093,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -11927,7 +12101,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -11935,7 +12109,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -11943,7 +12117,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -11951,7 +12125,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -11959,7 +12133,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -11967,7 +12141,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -11975,7 +12149,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -11983,7 +12157,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -11991,7 +12165,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -11999,7 +12173,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -12007,7 +12181,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -12015,7 +12189,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -12023,7 +12197,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -12031,7 +12205,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -12039,7 +12213,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -12047,7 +12221,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -12055,7 +12229,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -12063,7 +12237,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -12071,7 +12245,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -12079,7 +12253,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -12087,7 +12261,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -12095,7 +12269,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -12103,7 +12277,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -12111,7 +12285,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -12119,7 +12293,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -12127,7 +12301,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -12135,7 +12309,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -12143,7 +12317,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -12165,9 +12339,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -12175,7 +12349,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -12183,7 +12357,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -12191,7 +12365,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -12199,7 +12373,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -12207,7 +12381,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -12215,7 +12389,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -12223,7 +12397,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -12231,7 +12405,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -12239,7 +12413,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -12247,7 +12421,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -12255,7 +12429,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -12263,7 +12437,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -12271,7 +12445,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -12279,7 +12453,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -12287,7 +12461,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -12295,7 +12469,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -12303,7 +12477,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -12311,7 +12485,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -12319,7 +12493,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -12327,7 +12501,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -12335,7 +12509,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -12343,7 +12517,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -12351,7 +12525,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -12359,7 +12533,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -12367,7 +12541,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -12375,7 +12549,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -12383,7 +12557,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -12391,7 +12565,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -12399,7 +12573,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -12407,7 +12581,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -12415,7 +12589,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -12423,7 +12597,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -12431,7 +12605,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -12439,7 +12613,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -12447,7 +12621,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -12455,7 +12629,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -12463,7 +12637,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -12471,7 +12645,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -12479,7 +12653,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -12487,7 +12661,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -12495,7 +12669,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -12503,7 +12677,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -12511,7 +12685,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -12519,7 +12693,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -12527,7 +12701,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -12535,7 +12709,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -12543,7 +12717,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -12551,7 +12725,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -12559,7 +12733,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -12567,7 +12741,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -12575,7 +12749,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -12583,7 +12757,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -12591,7 +12765,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -12599,7 +12773,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -12607,7 +12781,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -12615,7 +12789,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -12623,7 +12797,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -12631,7 +12805,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -12639,7 +12813,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -12647,7 +12821,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -12655,7 +12829,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -12663,7 +12837,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -12671,7 +12845,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -12679,7 +12853,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -12687,7 +12861,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -12695,7 +12869,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -12703,7 +12877,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -12711,7 +12885,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -12719,7 +12893,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -12727,7 +12901,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -12735,7 +12909,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -12743,7 +12917,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -12751,7 +12925,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -12759,7 +12933,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -12767,7 +12941,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -12775,7 +12949,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>
@@ -12797,9 +12971,9 @@
       <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>31610.492953539684</v>
       </c>
@@ -12807,7 +12981,7 @@
         <v>42065.89763951661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>32013.540577539676</v>
       </c>
@@ -12815,7 +12989,7 @@
         <v>42080.06118581981</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>31638.412973539682</v>
       </c>
@@ -12823,7 +12997,7 @@
         <v>42071.560602184552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31214.453799515875</v>
       </c>
@@ -12831,7 +13005,7 @@
         <v>42054.63539188799</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>31240.779989738094</v>
       </c>
@@ -12839,7 +13013,7 @@
         <v>42056.9378941057</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>31304.792325515875</v>
       </c>
@@ -12847,7 +13021,7 @@
         <v>42061.542010743004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>31143.593122944447</v>
       </c>
@@ -12855,7 +13029,7 @@
         <v>42053.653352738031</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>31733.083544253961</v>
       </c>
@@ -12863,7 +13037,7 @@
         <v>42073.485009458091</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30951.987567571436</v>
       </c>
@@ -12871,7 +13045,7 @@
         <v>42052.400876236992</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>31380.299319468253</v>
       </c>
@@ -12879,7 +13053,7 @@
         <v>42061.718237412621</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>31391.437499968255</v>
       </c>
@@ -12887,7 +13061,7 @@
         <v>42064.494871094008</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>32876.000617476195</v>
       </c>
@@ -12895,7 +13069,7 @@
         <v>42094.766401357818</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>32726.007652904766</v>
       </c>
@@ -12903,7 +13077,7 @@
         <v>42093.784362207858</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>32854.844729476186</v>
       </c>
@@ -12911,7 +13085,7 @@
         <v>42094.349685675865</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>33011.553359476195</v>
       </c>
@@ -12919,7 +13093,7 @@
         <v>42099.083968573119</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>35199.256005396826</v>
       </c>
@@ -12927,7 +13101,7 @@
         <v>42228.286786657103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>35146.001475396828</v>
       </c>
@@ -12935,7 +13109,7 @@
         <v>42227.896302009867</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>35903.229168420636</v>
       </c>
@@ -12943,7 +13117,7 @@
         <v>42304.089418553456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>35969.003081753966</v>
       </c>
@@ -12951,7 +13125,7 @@
         <v>42316.883725253443</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>36008.105176785713</v>
       </c>
@@ -12959,7 +13133,7 @@
         <v>42317.990258742051</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>36176.660263087302</v>
       </c>
@@ -12967,7 +13141,7 @@
         <v>42340.054389371493</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>36113.409533087302</v>
       </c>
@@ -12975,7 +13149,7 @@
         <v>42329.813297208006</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>36134.795033087299</v>
       </c>
@@ -12983,7 +13157,7 @@
         <v>42338.332293712469</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>36052.403892214286</v>
       </c>
@@ -12991,7 +13165,7 @@
         <v>42320.244489743578</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>35813.543435896827</v>
       </c>
@@ -12999,7 +13173,7 @@
         <v>42283.364292855607</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>35788.273729230161</v>
       </c>
@@ -13007,7 +13181,7 @@
         <v>42276.026700255599</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>35546.678632753974</v>
       </c>
@@ -13015,7 +13189,7 @@
         <v>42249.943960368451</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>35299.13463246826</v>
       </c>
@@ -13023,7 +13197,7 @@
         <v>42235.690769196604</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>35474.728778468256</v>
       </c>
@@ -13031,7 +13205,7 @@
         <v>42239.759160173489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>35237.134266023815</v>
       </c>
@@ -13039,7 +13213,7 @@
         <v>42232.203651578959</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35764.347859682544</v>
       </c>
@@ -13047,7 +13221,7 @@
         <v>42268.990500891203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>35680.588356325403</v>
       </c>
@@ -13055,7 +13229,7 @@
         <v>42262.036886702546</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>35714.8801838254</v>
       </c>
@@ -13063,7 +13237,7 @@
         <v>42266.384590488269</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>35770.128310920634</v>
       </c>
@@ -13071,7 +13245,7 @@
         <v>42273.73647088185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35586.599127253969</v>
       </c>
@@ -13079,7 +13253,7 @@
         <v>42260.07775530855</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35876.865962238095</v>
       </c>
@@ -13087,7 +13261,7 @@
         <v>42288.609431030454</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>32569.977403476187</v>
       </c>
@@ -13095,7 +13269,7 @@
         <v>42083.673673692057</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>32671.679355476197</v>
       </c>
@@ -13103,7 +13277,7 @@
         <v>42090.216995361043</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>33757.056096761909</v>
       </c>
@@ -13111,7 +13285,7 @@
         <v>42124.945315912708</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>33708.22429776191</v>
       </c>
@@ -13119,7 +13293,7 @@
         <v>42124.102064311548</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33611.949035761907</v>
       </c>
@@ -13127,7 +13301,7 @@
         <v>42121.600628049709</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>33485.154075761908</v>
       </c>
@@ -13135,7 +13309,7 @@
         <v>42115.209472948387</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>33668.586176761906</v>
       </c>
@@ -13143,7 +13317,7 @@
         <v>42123.403315705982</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>34020.206286460321</v>
       </c>
@@ -13151,7 +13325,7 @@
         <v>42132.235829589314</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34049.932948111113</v>
       </c>
@@ -13159,7 +13333,7 @@
         <v>42137.643686838419</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34139.184773253968</v>
       </c>
@@ -13167,7 +13341,7 @@
         <v>42139.58653602784</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>33950.485558460314</v>
       </c>
@@ -13175,7 +13349,7 @@
         <v>42129.889589083614</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>34046.88592188889</v>
       </c>
@@ -13183,7 +13357,7 @@
         <v>42137.359961105467</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>34033.719654777786</v>
       </c>
@@ -13191,7 +13365,7 @@
         <v>42137.235868355136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>33835.584058460321</v>
       </c>
@@ -13199,7 +13373,7 @@
         <v>42128.661695412113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>34104.006291920639</v>
       </c>
@@ -13207,7 +13381,7 @@
         <v>42139.178717544557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>33390.762128587303</v>
       </c>
@@ -13215,7 +13389,7 @@
         <v>42112.240922183977</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>35086.331950246022</v>
       </c>
@@ -13223,7 +13397,7 @@
         <v>42204.81593213728</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>35094.166965341261</v>
       </c>
@@ -13231,7 +13405,7 @@
         <v>42207.503555806921</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>34989.368391246026</v>
       </c>
@@ -13239,7 +13413,7 @@
         <v>42202.831189870987</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>35108.424955246024</v>
       </c>
@@ -13247,7 +13421,7 @@
         <v>42214.394222158175</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>35116.259970341263</v>
       </c>
@@ -13255,7 +13429,7 @@
         <v>42217.081845827815</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>34715.364716833334</v>
       </c>
@@ -13263,7 +13437,7 @@
         <v>42172.655169087884</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>34790.576827388897</v>
       </c>
@@ -13271,7 +13445,7 @@
         <v>42179.094892970592</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>35047.700592912697</v>
       </c>
@@ -13279,7 +13453,7 @@
         <v>42203.106249411809</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>34804.975581865081</v>
       </c>
@@ -13287,7 +13461,7 @@
         <v>42182.921019412657</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>34886.14234872222</v>
       </c>
@@ -13295,7 +13469,7 @@
         <v>42189.725068826498</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>34800.368776722229</v>
       </c>
@@ -13303,7 +13477,7 @@
         <v>42180.124084435884</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>34813.850034722222</v>
       </c>
@@ -13311,7 +13485,7 @@
         <v>42188.374697785839</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>34810.435042722231</v>
       </c>
@@ -13319,7 +13493,7 @@
         <v>42183.465362695075</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>34956.428985865088</v>
       </c>
@@ -13327,7 +13501,7 @@
         <v>42191.667918015919</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>34325.879187119048</v>
       </c>
@@ -13335,7 +13509,7 @@
         <v>42146.050243382801</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>34566.604828071431</v>
       </c>
@@ -13343,7 +13517,7 @@
         <v>42146.422904194973</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>34649.566929849207</v>
       </c>
@@ -13351,7 +13525,7 @@
         <v>42164.840084903131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>34668.761066833336</v>
       </c>
@@ -13359,7 +13533,7 @@
         <v>42169.593258138055</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>33533.301356428572</v>
       </c>
@@ -13367,7 +13541,7 @@
         <v>42116.078287334269</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>33605.17053785715</v>
       </c>
@@ -13375,7 +13549,7 @@
         <v>42120.52847017</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>34227.038178444447</v>
       </c>
@@ -13383,7 +13557,7 @@
         <v>42141.885442087594</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>33302.09478196031</v>
       </c>
@@ -13391,7 +13565,7 @@
         <v>42108.492503104913</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>33465.324901682543</v>
       </c>
@@ -13399,7 +13573,7 @@
         <v>42113.384365878032</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>33293.587748682534</v>
       </c>
@@ -13407,7 +13581,7 @@
         <v>42106.301520353401</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>33271.332268682534</v>
       </c>

--- a/NSGA-II_results/Pareto_results.xlsx
+++ b/NSGA-II_results/Pareto_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C25BEA-56D1-4D0A-B678-398968DCC135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9FA78-D61E-4EFF-85EF-391033026346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{A9BC2579-B45C-470C-BF86-7030DB60672E}"/>
   </bookViews>
